--- a/记录.xlsx
+++ b/记录.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LearnWithGit\fullstack-d3js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6348E2-B9DB-4F62-A98B-114B871C9FA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB41BBAD-BA4F-4265-AD4A-7DD31804D85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11895" yWindow="3870" windowWidth="16380" windowHeight="7170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5790" yWindow="8520" windowWidth="16380" windowHeight="7170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="官方文档" sheetId="1" r:id="rId1"/>
+    <sheet name="Fullstack D3 C1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>https://d3js.org/#properties</t>
   </si>
@@ -47,6 +48,110 @@
   </si>
   <si>
     <t>https://d3js.org/#enter-exit</t>
+  </si>
+  <si>
+    <t>设置折线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 轴，由日期构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y 轴，由最高气温值构成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3.timeParse()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定一个日期格式的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个解析那个日期格式的函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比如，传入一个日期格式为 "%Y" 的字符串，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那么 d3.timeParse("%Y") 只会解析带有一个年份的字符串，比如 "2018"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中的 date 大概是这么个意思：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessor的意义：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、容易改变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个图表都可能需要更改，不管是业务需要，设计，还是数据结构的改变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这些持续变化的需求，在基于动态数据，做仪表板的时候，特别常见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你可能两个月以后，就要处理一个新的 edge case 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在图表文件的顶部，有一个地方放着 accessor function 的话，使得整个过程中，修改 accesor 都很简单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、写文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件顶部有这些函数，能够马上提醒你，图表标记了哪些测绘值，以及数据的结构。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、构思</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有了数据，来构思我们需要获取什么测绘值，是做图表的一个很好的方式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很容易冲动，然后两小时后，发现另一种图表会更适合这个数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrapper 和 bounds 的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wrapper 放的是，整张图，包括数据元素，轴，标签等等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounds 放的是，所有的数据元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -146,6 +251,99 @@
         <a:xfrm>
           <a:off x="0" y="1447800"/>
           <a:ext cx="9152381" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47448</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAE6D58E-E0A0-4791-A1D1-4AF6E1B8CD93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2714625"/>
+          <a:ext cx="1419048" cy="190476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>351181</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>151861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD33F36F-4B5F-4BC8-8875-355E36AF7D1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="5972175"/>
+          <a:ext cx="9952381" cy="4314286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -422,7 +620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -464,4 +662,151 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6ECF3F-2E1E-4994-AF0A-D1DD14FCADA5}">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/记录.xlsx
+++ b/记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LearnWithGit\fullstack-d3js\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB41BBAD-BA4F-4265-AD4A-7DD31804D85A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522927C-0CF8-4362-B8BF-F254BEC97721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="8520" windowWidth="16380" windowHeight="7170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="7140" windowWidth="16380" windowHeight="7170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="官方文档" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>https://d3js.org/#properties</t>
   </si>
@@ -151,6 +151,222 @@
   </si>
   <si>
     <t>bounds 放的是，所有的数据元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3 selection 对象是数组的子类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selections.attr( 属性名, 属性值 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性值既可以是 constant ，也可以是一个函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于 d3-selection 方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、任何选择或创建新对象的方法，都会返回新的 selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、任何修改当前 selection 的方法，都会返回同一个 selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.style() 同 .attr() ，只不过 .style() 是用来设置 CSS 样式的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于我们的 y 轴来说，我们需要把值，从温度转换成像素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个 scale 就是一个函数，这个函数能够把值在两个领域之间，进行转换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我们的温度相对于坐标来说，是呈线性缩放的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度中的每个点，都映射到坐标轴上，不同的点，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，我们使用线性缩放的 scaleLinear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所谓 scale ，就是把 1维 的抽象数据，映射成视觉展示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书上提的是这么回事：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我觉得应该就是这么回事：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用 scaleLinear 的一个爽点在于，你并不需要知道具体的映射斜率是什么样子的，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只需要知道 头和头对应， 脚和脚对应就行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩下的，都由程序计算就得了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果 domain 和 range 都是数字的话，scale 函数还可以取反。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像反函数一样，给定一个 range 值，去取对应的 domain 。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3-array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供了 d3.extent 方法，让你获取一个数组的范围。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档里面，提到了第2个可选参数，accessor，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源码是这样：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个 valueof 就是 accessor ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况大概就是，返回你真正要的值就行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回值也看到了，是一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[min, max]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>domain已经有了，确定了 输入范围 ，再确定输出的 y 坐标即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为 svg 的坐标系，是从上往下的，所以，最大值应该是 0 ，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小值应该是 bounds 的高度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attr 设置的值，其优先级低于 CSS ，我们可以通过任意的 CSS 覆盖 attr() 所设置的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为x轴方向上，要处理日期对象，我们需要使用 time scale ，它知道怎么处理日期对象。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3-shape</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3.line()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个生成器，将数据点转换为 d 字符串。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光创建完 generator 之后，还要告诉 generator ，如何去获取线上，每个点的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x 和 y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line.x()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>line.y()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给 x() 和 y() 传 accessor 进去，但是需要注意，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光传 accessor 的话，拿到的值，是没有映射到 坐标 上的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以，还要加上 scale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3-axis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>与我们之前所使用的方法不同，d3 axis 构造器，会往页面上添加多个元素。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个方向一个方法，指定了标签和刻度标记的位置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call( 传入一个函数 )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用这个函数，并将 receiver 作为函数的第一个参数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d3自己判断了，有多少个 tick mark，以及 tick mark 之间隔得多开。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -344,6 +560,270 @@
         <a:xfrm>
           <a:off x="685800" y="5972175"/>
           <a:ext cx="9952381" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>275162</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>180817</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC7418A2-F067-4AD5-BE7D-1E8C5F094F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="14839950"/>
+          <a:ext cx="8504762" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>275333</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>123719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76A8368E-1512-4881-B5C8-7B21BEFBF973}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="16649700"/>
+          <a:ext cx="7133333" cy="847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>399400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>66101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2543C2A2-8FDD-443A-91A0-11D67FE4C927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="17916525"/>
+          <a:ext cx="5200000" cy="4590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>199571</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>9343</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494C6A85-5F9C-46C5-B0EC-01F471ED7957}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="24069675"/>
+          <a:ext cx="3628571" cy="1457143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342343</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>85375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C08E424-AB58-4D02-B303-4CB5CF4F3680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="26422350"/>
+          <a:ext cx="4457143" cy="2800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37854</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>123623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCAF600-B686-4CDD-BC30-A81D418803A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="35604450"/>
+          <a:ext cx="1971429" cy="1619048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -666,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E6ECF3F-2E1E-4994-AF0A-D1DD14FCADA5}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A201" workbookViewId="0">
+      <selection activeCell="B215" sqref="B215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -804,9 +1284,280 @@
         <v>31</v>
       </c>
     </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C166" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D167" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C168" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B173" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C178" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C182" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B188" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C189" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C191" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B213" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>